--- a/medicine/Enfance/La_Galaxie_(livres)/La_Galaxie_(livres).xlsx
+++ b/medicine/Enfance/La_Galaxie_(livres)/La_Galaxie_(livres).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Galaxie est une collection française de livres pour la jeunesse créée et éditée par les éditions Hachette de 1955 à 1970, et destinée aux préadolescents. Elle compte 41 titres. Les titres publiés dans Les Grands Livres Hachette sont principalement des versions abrégées[1] de l’œuvre originale. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Galaxie est une collection française de livres pour la jeunesse créée et éditée par les éditions Hachette de 1955 à 1970, et destinée aux préadolescents. Elle compte 41 titres. Les titres publiés dans Les Grands Livres Hachette sont principalement des versions abrégées de l’œuvre originale. 
 En 1970, le nom de la collection devient « Galaxie - Grands livres Hachette » puis « La Galaxie » en 1971 jusqu'en  1983. Elle demeure identique à l'ancienne collection (seul change le logo).
 Certains livres regroupent deux ou trois romans en un seul volume ; ils sont identifiés par les logos « 2 en un » et « 3 en un ». 
 </t>
@@ -513,7 +525,9 @@
           <t>Aspect des livres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les premiers volumes se présentent sous la forme de grands livres cartonnés, reliés et pelliculés, épais et solides, de format 31 cm x 25,5 cm. Dans les années 60, la taille des livres sera réduite au format In-quarto (26 cm x 18 cm).
 De 1955 à 1958, les livres présentent un dos Pellior jaune, et le logo "Les Grands Livres Hachette" figure dans un bandeau jaune au bas de la couverture. Ce bandeau sera remplacé en 1959 par une simple inscription en caractères noirs.
@@ -547,10 +561,12 @@
           <t>Titres parus</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Note : liste exhaustive. La date est celle de la 1re édition.
-1955 : Sans famille, de Hector Malot. Illustrations d'Albert Chazelle (ouvrage couronné par l'Académie française)[2]
+1955 : Sans famille, de Hector Malot. Illustrations d'Albert Chazelle (ouvrage couronné par l'Académie française)
 1955 : Peter Pan, de J. M. Barrie. Illustrations de Marianne Clouzot.
 1956 : La Case de l'oncle Tom, de Harriet Beecher Stowe. Illustrations de Paul Durand.
 1956 : Le Clan des bêtes sauvages, de René Guillot. Illustrations de Pierre Probst.
@@ -621,7 +637,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>livres
 Histoire du livre de jeunesse d'hier à aujourd'hui, en France et dans le monde, Collectif (Auteur), 92 pages, Éditeur : Gallimard, 13 janvier 1994, Collection : Hors Jeunesse,  (ISBN 2070568601 et 978-2070568604).</t>
